--- a/List of variables.xlsx
+++ b/List of variables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ing-my.sharepoint.com/personal/jose_javier_caloca_martinez_ing_com/Documents/Desktop/Loan Prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{1CA57B3D-38C8-4D3D-A7B0-6A57366AE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C6686B-650B-49F1-B1B2-C1243A88CA93}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{1CA57B3D-38C8-4D3D-A7B0-6A57366AE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B044A69-AEFA-4407-B670-19E3DA9596A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5398E118-7893-47F7-9E06-B274E5416BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="List of variables.xlsx" sheetId="1" r:id="rId1"/>
     <sheet name="List of reference categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Output Log Regression - First M" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>GENDER:M</t>
   </si>
@@ -205,13 +206,31 @@
   </si>
   <si>
     <t>Column name</t>
+  </si>
+  <si>
+    <t>Feature name</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>p_values</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>MOST_COMMON_TRANS_OPERATION:OTHER_CREDIT_IN_CA...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +246,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,10 +298,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,9 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7638BBB3-40B0-4D88-95AB-E85412D56D05}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -869,7 +941,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,5 +1011,529 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FBF4F5-1E31-4785-B4AA-988A38C7ACC9}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.0298309999999999</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-3.9583E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.70306599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.078419</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4.6131999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.51850200000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.5899999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-0.41623900000000003</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.2612000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-0.52504700000000004</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.979E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-0.40154200000000001</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.9694E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-0.19189899999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.30080600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-0.57158500000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.0619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.23624</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.4170000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.581094</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.5631E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.3710530000000001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.105253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.3955249999999999</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3.189E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.40829500000000002</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.29147400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.21458199999999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.59759700000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.91386500000000004</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3.5408000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.80616600000000005</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.1143000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.0340999999999997E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.90423799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6.1466E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.87876100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.7741539999999998</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.610873</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.1391E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.28045799999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.22484000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3.9979000000000001E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.89703699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-0.32982099999999998</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.222722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5">
+        <v>-0.99142799999999998</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.103823</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.69656499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.22250800000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.28152300000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.199546</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.49440400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.42785200000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.28612100000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.44690600000000003</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.10964400000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.17727200000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.61643499999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.709901</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.57399900000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.21118000000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.13583600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.51978800000000003</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9.1840000000000005E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.186695</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.939025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.124846</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.89224800000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>-0.44170900000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.81151600000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-0.46693400000000002</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.34236800000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="3">
+        <v>-1.7309999999999999E-2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.97911300000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-0.273509</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.67601800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.30853700000000001</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.24827099999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6.7993999999999999E-2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.63279399999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.49761899999999998</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5.4465E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.18859200000000001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.28362799999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.28134700000000001</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.196379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>